--- a/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yufulao\Desktop\YuFramework\RabiConfig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CB5E8D-D74E-4511-9FF3-918EFF0E5226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46400AEB-1865-46CA-B847-3661D44F6535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
     <sheet name="UI" sheetId="1" r:id="rId2"/>
+    <sheet name="UICommon" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +89,83 @@
   </si>
   <si>
     <t>LoadingView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/HomeView.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopLayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SettingView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/SettingView.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChapterSelectView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/ChapterSelectView.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/Common/StageItem.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UICommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainPlotSelectView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/MainPlotSelectView.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamEditView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterSelectView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/TeamEditView.prefab</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/CharacterSelectView.prefab</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/Common/CharacterItem (0).prefab</t>
+  </si>
+  <si>
+    <t>CharacterItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -428,6 +506,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -439,10 +522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -526,10 +609,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -541,13 +624,97 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -555,4 +722,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8DA5B1-5F3C-484D-B8EB-EE108DF585DB}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46400AEB-1865-46CA-B847-3661D44F6535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B703E300-4F96-4940-B1C9-F1BDEC191352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,19 @@
   <si>
     <t>CharacterItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityHUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/Common/EntityHUD.prefab</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/BattleMainView.prefab</t>
+  </si>
+  <si>
+    <t>BattleMainView</t>
   </si>
 </sst>
 </file>
@@ -522,10 +535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -594,10 +607,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -627,7 +640,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -715,6 +728,20 @@
       </c>
       <c r="D12" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -726,10 +753,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8DA5B1-5F3C-484D-B8EB-EE108DF585DB}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -774,6 +801,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B703E300-4F96-4940-B1C9-F1BDEC191352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7BC85A-F44B-43AD-8D9E-444BCDCA8B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,20 @@
   </si>
   <si>
     <t>BattleMainView</t>
+  </si>
+  <si>
+    <t>BuffItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/Common/BuffItem (0).prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSelectItem</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/Common/SkillObj (0).prefab</t>
   </si>
 </sst>
 </file>
@@ -537,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -753,10 +767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8DA5B1-5F3C-484D-B8EB-EE108DF585DB}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -809,6 +823,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7BC85A-F44B-43AD-8D9E-444BCDCA8B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB2BE58-20B5-41B8-86E3-70C3382E1172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,12 +188,6 @@
   <si>
     <t>Assets/AddressableAssets/UI/Common/BuffItem (0).prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillSelectItem</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/UI/Common/SkillObj (0).prefab</t>
   </si>
 </sst>
 </file>
@@ -767,10 +761,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8DA5B1-5F3C-484D-B8EB-EE108DF585DB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -831,14 +825,6 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB2BE58-20B5-41B8-86E3-70C3382E1172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1905B9A9-A6D8-4E56-8173-6DBD11572A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -621,135 +621,134 @@
         <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
+      <c r="A12" t="s">
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>40</v>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
+        <v>99</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -763,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8DA5B1-5F3C-484D-B8EB-EE108DF585DB}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1905B9A9-A6D8-4E56-8173-6DBD11572A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EED4E7-A23F-43E1-93C4-1335E2C042F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -731,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>

--- a/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EED4E7-A23F-43E1-93C4-1335E2C042F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C42C2DC-3E7F-43EA-AFC7-D11D4CDDE739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -522,14 +522,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -546,20 +546,20 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="45.25" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +576,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +593,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -610,7 +610,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -625,7 +625,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -639,7 +639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -653,7 +653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -667,7 +667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -675,13 +675,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -689,13 +689,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -703,13 +703,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -717,13 +717,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -731,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -766,9 +766,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -800,7 +800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -808,7 +808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -816,7 +816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>

--- a/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C42C2DC-3E7F-43EA-AFC7-D11D4CDDE739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC1DB86-F4FD-4731-97E8-57DB83D31C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,13 @@
   <si>
     <t>Assets/AddressableAssets/UI/Common/BuffItem (0).prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/DoubleConfirmView.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleConfirmView</t>
   </si>
 </sst>
 </file>
@@ -522,14 +529,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -543,23 +550,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="45.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="45.25" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +583,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +600,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -610,7 +617,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -625,129 +632,143 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
         <v>99</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -766,9 +787,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -792,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -800,7 +821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -808,7 +829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -816,7 +837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>

--- a/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC1DB86-F4FD-4731-97E8-57DB83D31C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8343862B-60DA-4944-B455-7BBFDDDB2969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,14 @@
   </si>
   <si>
     <t>DoubleConfirmView</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/BattleTutorialView.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleTutorialView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -550,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,6 +778,20 @@
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8343862B-60DA-4944-B455-7BBFDDDB2969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2000FDD1-D212-4392-9DCD-BDC1544E1F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,12 @@
   <si>
     <t>BattleTutorialView</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterCatalogView</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/CharacterCatalogView.prefab</t>
   </si>
 </sst>
 </file>
@@ -537,14 +543,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -558,23 +564,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="45.25" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +597,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +614,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -625,7 +631,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -640,7 +646,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -654,7 +660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -668,7 +674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -682,7 +688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -696,7 +702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -710,7 +716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -724,7 +730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -738,7 +744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -752,7 +758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -766,7 +772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -780,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -792,6 +798,20 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -809,9 +829,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -835,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -843,7 +863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -851,7 +871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -859,7 +879,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
